--- a/biology/Zoologie/Gynaephora_selenitica/Gynaephora_selenitica.xlsx
+++ b/biology/Zoologie/Gynaephora_selenitica/Gynaephora_selenitica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gynaephora selenitica, le Bombyx sélénitique ou Orgyie sélénitique, est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Lymantriinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chenille
@@ -545,9 +559,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polyphages, les chenilles se développent sur des Fabaceae (Légumineuses) dont Lathyrus sylvestris, Lathyrus  pratensis, Vicia cracca,  Trifolium  pratense ; aussi sur d'autres herbacées, des arbres : Luzula, Deschampsia caespitosa, Potentilla erecta, Betula verrucosa, Betula pubescens, Quercus robur, Salix caprea, Salix aurita, Salix phylicifolia, Populus tremula, Rubus idaeus, Calluna vulgaris, Vaccinium myrtillus, Vaccinium  uliginosum, Andromeda polifolia [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyphages, les chenilles se développent sur des Fabaceae (Légumineuses) dont Lathyrus sylvestris, Lathyrus  pratensis, Vicia cracca,  Trifolium  pratense ; aussi sur d'autres herbacées, des arbres : Luzula, Deschampsia caespitosa, Potentilla erecta, Betula verrucosa, Betula pubescens, Quercus robur, Salix caprea, Salix aurita, Salix phylicifolia, Populus tremula, Rubus idaeus, Calluna vulgaris, Vaccinium myrtillus, Vaccinium  uliginosum, Andromeda polifolia .
 </t>
         </is>
       </c>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,15 +620,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Gynaephora selenitica a été décrite par l’entomologiste Eugen Johann Christoph Esper en 1789, sous le nom initial de  Phalaena (Bombyx) selenitica[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Gynaephora selenitica a été décrite par l’entomologiste Eugen Johann Christoph Esper en 1789, sous le nom initial de  Phalaena (Bombyx) selenitica.
 Elle est l'espèce type du genre Gynaephora.
-Synonymie
-Bombyx paradoxa Fabricius, 1787[3]
-Phalaena (Bombyx) selenitica Esper, 1789
-Bombyx lathyri Hübner, 1803 [4]
-Orgyia selenitica Swinhoe, 1923[5]</t>
+</t>
         </is>
       </c>
     </row>
@@ -635,13 +651,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bombyx paradoxa Fabricius, 1787
+Phalaena (Bombyx) selenitica Esper, 1789
+Bombyx lathyri Hübner, 1803 
+Orgyia selenitica Swinhoe, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gynaephora_selenitica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gynaephora_selenitica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Bombyx sélénitique[6]
-L'Orgyie sélénitique[7]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Bombyx sélénitique
+L'Orgyie sélénitique</t>
         </is>
       </c>
     </row>
